--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1554,6 +1554,502 @@
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>112093593</v>
+      </c>
+      <c r="B9" t="n">
+        <v>103288</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>221144</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Grönpyrola</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Pyrola chlorantha</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Svarvartorp ca 400 m SO om, Upl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>653785.7777792643</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6577035.071886262</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>Gles barrskog på sand (både tall och gran)</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>112093595</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Svarvartorp ca 400 m SO om, Upl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>653792.4227122802</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6576997.511297328</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Gles barrskog på sand (både tall och gran)</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>112093592</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90658</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4361</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Orange taggsvamp</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hydnellum aurantiacum</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Svarvartorp ca 400 m SO om, Upl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>653789.0938753984</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6577029.07181866</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Gles barrskog på sand (både tall och gran)</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>112097135</v>
+      </c>
+      <c r="B12" t="n">
+        <v>90666</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Svarvartorp ca 400 m SO om, Upl</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>653888.520037169</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6576888.42942148</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>Gles barrskog på sand (både tall och gran)</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112093593</v>
+        <v>112093592</v>
       </c>
       <c r="B9" t="n">
-        <v>103288</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,31 +1568,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1601,10 +1601,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653785.7777792643</v>
+        <v>653789.0938753984</v>
       </c>
       <c r="R9" t="n">
-        <v>6577035.071886262</v>
+        <v>6577029.07181866</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112093592</v>
+        <v>112097135</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,43 +1812,45 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653789.0938753984</v>
+        <v>653888.520037169</v>
       </c>
       <c r="R11" t="n">
-        <v>6577029.07181866</v>
+        <v>6576888.42942148</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1893,12 +1895,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1922,10 +1930,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112097135</v>
+        <v>112093593</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>103288</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1938,41 +1946,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653888.520037169</v>
+        <v>653785.7777792643</v>
       </c>
       <c r="R12" t="n">
-        <v>6576888.42942148</v>
+        <v>6577035.071886262</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2017,18 +2023,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112093592</v>
+        <v>112097135</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,43 +1568,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653789.0938753984</v>
+        <v>653888.520037169</v>
       </c>
       <c r="R9" t="n">
-        <v>6577029.07181866</v>
+        <v>6576888.42942148</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1649,12 +1651,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1678,10 +1686,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112093595</v>
+        <v>112093593</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>103288</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1690,31 +1698,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1723,10 +1731,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653792.4227122802</v>
+        <v>653785.7777792643</v>
       </c>
       <c r="R10" t="n">
-        <v>6576997.511297328</v>
+        <v>6577035.071886262</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112097135</v>
+        <v>112093592</v>
       </c>
       <c r="B11" t="n">
-        <v>90666</v>
+        <v>90658</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1812,45 +1820,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653888.520037169</v>
+        <v>653789.0938753984</v>
       </c>
       <c r="R11" t="n">
-        <v>6576888.42942148</v>
+        <v>6577029.07181866</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1895,18 +1901,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1930,10 +1930,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112093593</v>
+        <v>112093595</v>
       </c>
       <c r="B12" t="n">
-        <v>103288</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1942,31 +1942,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1975,10 +1975,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653785.7777792643</v>
+        <v>653792.4227122802</v>
       </c>
       <c r="R12" t="n">
-        <v>6577035.071886262</v>
+        <v>6576997.511297328</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY12"/>
+  <dimension ref="A1:AY13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2050,6 +2050,126 @@
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>112116035</v>
+      </c>
+      <c r="B13" t="n">
+        <v>90669</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6003297</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Spricktaggsvamp</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hydnellum glaucopus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Svarvartorp ca 400 m SO om, Upl</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>653795</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6577004</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Kött ganska sprött (ej korkartat), ljusbrunt.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>Gles barrskog på sand (både tall och gran)</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112097135</v>
+        <v>112093591</v>
       </c>
       <c r="B9" t="n">
-        <v>90666</v>
+        <v>103249</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,45 +1568,52 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>340</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ryl</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chimaphila umbellata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>(L.) W. P. C. Barton</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653888.520037169</v>
+        <v>653798</v>
       </c>
       <c r="R9" t="n">
-        <v>6576888.42942148</v>
+        <v>6576988</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1636,24 +1643,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1662,7 +1659,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1686,10 +1682,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112093593</v>
+        <v>112093592</v>
       </c>
       <c r="B10" t="n">
-        <v>103288</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1698,31 +1694,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1731,10 +1727,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653785.7777792643</v>
+        <v>653789</v>
       </c>
       <c r="R10" t="n">
-        <v>6577035.071886262</v>
+        <v>6577029</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1764,19 +1760,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1808,10 +1794,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112093592</v>
+        <v>112093593</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>103288</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1820,31 +1806,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1853,10 +1839,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653789.0938753984</v>
+        <v>653786</v>
       </c>
       <c r="R11" t="n">
-        <v>6577029.07181866</v>
+        <v>6577035</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1886,19 +1872,9 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1930,10 +1906,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112093595</v>
+        <v>112097135</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>90666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1942,43 +1918,45 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653792.4227122802</v>
+        <v>653889</v>
       </c>
       <c r="R12" t="n">
-        <v>6576997.511297328</v>
+        <v>6576888</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2008,19 +1986,14 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2029,6 +2002,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2052,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112116035</v>
+        <v>112093595</v>
       </c>
       <c r="B13" t="n">
-        <v>90669</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2064,45 +2038,43 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6003297</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spricktaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum glaucopus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>653795</v>
+        <v>653792</v>
       </c>
       <c r="R13" t="n">
-        <v>6577004</v>
+        <v>6576998</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2137,18 +2109,12 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Kött ganska sprött (ej korkartat), ljusbrunt.</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2169,6 +2135,126 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>112116035</v>
+      </c>
+      <c r="B14" t="n">
+        <v>90669</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6003297</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Spricktaggsvamp</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Hydnellum glaucopus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Maas Geest. &amp; Nannf.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Svarvartorp ca 400 m SO om, Upl</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>653795</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6577004</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Ekerö</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Kött ganska sprött (ej korkartat), ljusbrunt.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>Gles barrskog på sand (både tall och gran)</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Jan Yngve Andersson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112093591</v>
+        <v>112093595</v>
       </c>
       <c r="B9" t="n">
-        <v>103249</v>
+        <v>90792</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,40 +1568,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>340</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ryl</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Chimaphila umbellata</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) W. P. C. Barton</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(Batsch:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1610,10 +1601,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653798</v>
+        <v>653792</v>
       </c>
       <c r="R9" t="n">
-        <v>6576988</v>
+        <v>6576998</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1646,11 +1637,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1685,7 +1671,7 @@
         <v>112093592</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>90792</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1794,10 +1780,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112093593</v>
+        <v>112097135</v>
       </c>
       <c r="B11" t="n">
-        <v>103288</v>
+        <v>90800</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1810,39 +1796,41 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221144</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653786</v>
+        <v>653889</v>
       </c>
       <c r="R11" t="n">
-        <v>6577035</v>
+        <v>6576888</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1877,12 +1865,18 @@
           <t>2023-09-14</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1906,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112097135</v>
+        <v>112093591</v>
       </c>
       <c r="B12" t="n">
-        <v>90666</v>
+        <v>103716</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1918,45 +1912,52 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4364</v>
+        <v>340</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ryl</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chimaphila umbellata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>(L.) W. P. C. Barton</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653889</v>
+        <v>653798</v>
       </c>
       <c r="R12" t="n">
-        <v>6576888</v>
+        <v>6576988</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1993,7 +1994,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2002,7 +2003,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112093595</v>
+        <v>112093593</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>103755</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,31 +2038,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>653792</v>
+        <v>653786</v>
       </c>
       <c r="R13" t="n">
-        <v>6576998</v>
+        <v>6577035</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2141,7 +2141,7 @@
         <v>112116035</v>
       </c>
       <c r="B14" t="n">
-        <v>90669</v>
+        <v>90803</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112093595</v>
+        <v>112097135</v>
       </c>
       <c r="B9" t="n">
-        <v>90792</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,43 +1568,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653792</v>
+        <v>653889</v>
       </c>
       <c r="R9" t="n">
-        <v>6576998</v>
+        <v>6576888</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,12 +1641,18 @@
           <t>2023-09-14</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1668,10 +1676,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112093592</v>
+        <v>112093591</v>
       </c>
       <c r="B10" t="n">
-        <v>90792</v>
+        <v>103742</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1680,31 +1688,40 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>340</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ryl</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Chimaphila umbellata</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>(L.) W. P. C. Barton</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1713,10 +1730,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653789</v>
+        <v>653798</v>
       </c>
       <c r="R10" t="n">
-        <v>6577029</v>
+        <v>6576988</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1749,6 +1766,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1780,10 +1802,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112097135</v>
+        <v>112093592</v>
       </c>
       <c r="B11" t="n">
-        <v>90800</v>
+        <v>90806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1792,45 +1814,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653889</v>
+        <v>653789</v>
       </c>
       <c r="R11" t="n">
-        <v>6576888</v>
+        <v>6577029</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1865,18 +1885,12 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1900,10 +1914,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112093591</v>
+        <v>112093593</v>
       </c>
       <c r="B12" t="n">
-        <v>103716</v>
+        <v>103781</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1912,37 +1926,28 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>340</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ryl</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chimaphila umbellata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) W. P. C. Barton</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -1954,10 +1959,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653798</v>
+        <v>653786</v>
       </c>
       <c r="R12" t="n">
-        <v>6576988</v>
+        <v>6577035</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1990,11 +1995,6 @@
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2026,10 +2026,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112093593</v>
+        <v>112093595</v>
       </c>
       <c r="B13" t="n">
-        <v>103755</v>
+        <v>90806</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,31 +2038,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2071,10 +2071,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>653786</v>
+        <v>653792</v>
       </c>
       <c r="R13" t="n">
-        <v>6577035</v>
+        <v>6576998</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2141,7 +2141,7 @@
         <v>112116035</v>
       </c>
       <c r="B14" t="n">
-        <v>90803</v>
+        <v>90817</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112097135</v>
+        <v>112093595</v>
       </c>
       <c r="B9" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,45 +1568,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653889</v>
+        <v>653792</v>
       </c>
       <c r="R9" t="n">
-        <v>6576888</v>
+        <v>6576998</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1641,18 +1639,12 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1676,10 +1668,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112093591</v>
+        <v>112093593</v>
       </c>
       <c r="B10" t="n">
-        <v>103742</v>
+        <v>103781</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1688,37 +1680,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>340</v>
+        <v>221144</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ryl</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chimaphila umbellata</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) W. P. C. Barton</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>fullt utvecklade blad</t>
@@ -1730,10 +1713,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653798</v>
+        <v>653786</v>
       </c>
       <c r="R10" t="n">
-        <v>6576988</v>
+        <v>6577035</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1766,11 +1749,6 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-14</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1802,10 +1780,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112093592</v>
+        <v>112097135</v>
       </c>
       <c r="B11" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1814,43 +1792,45 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653789</v>
+        <v>653889</v>
       </c>
       <c r="R11" t="n">
-        <v>6577029</v>
+        <v>6576888</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1885,12 +1865,18 @@
           <t>2023-09-14</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1914,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112093593</v>
+        <v>112093592</v>
       </c>
       <c r="B12" t="n">
-        <v>103781</v>
+        <v>90806</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1926,31 +1912,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1959,10 +1945,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653786</v>
+        <v>653789</v>
       </c>
       <c r="R12" t="n">
-        <v>6577035</v>
+        <v>6577029</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2026,10 +2012,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>112093595</v>
+        <v>112093591</v>
       </c>
       <c r="B13" t="n">
-        <v>90806</v>
+        <v>103742</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2038,31 +2024,40 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>340</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Ryl</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Chimaphila umbellata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>(L.) W. P. C. Barton</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2071,10 +2066,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>653792</v>
+        <v>653798</v>
       </c>
       <c r="R13" t="n">
-        <v>6576998</v>
+        <v>6576988</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2107,6 +2102,11 @@
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-14</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ganska små och taniga. Översiktlig räkning och troligen finns fler på de båda dellokalerna.</t>
         </is>
       </c>
       <c r="AD13" t="b">

--- a/artfynd/A 14020-2023.xlsx
+++ b/artfynd/A 14020-2023.xlsx
@@ -1556,10 +1556,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112093595</v>
+        <v>112097135</v>
       </c>
       <c r="B9" t="n">
-        <v>90806</v>
+        <v>90814</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1568,43 +1568,45 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>653792</v>
+        <v>653889</v>
       </c>
       <c r="R9" t="n">
-        <v>6576998</v>
+        <v>6576888</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1639,12 +1641,18 @@
           <t>2023-09-14</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1668,10 +1676,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112093593</v>
+        <v>112093592</v>
       </c>
       <c r="B10" t="n">
-        <v>103781</v>
+        <v>90806</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1680,31 +1688,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221144</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1713,10 +1721,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>653786</v>
+        <v>653789</v>
       </c>
       <c r="R10" t="n">
-        <v>6577035</v>
+        <v>6577029</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1780,10 +1788,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112097135</v>
+        <v>112093595</v>
       </c>
       <c r="B11" t="n">
-        <v>90814</v>
+        <v>90806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1792,45 +1800,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>teleomorf</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Svarvartorp ca 400 m SO om, Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>653889</v>
+        <v>653792</v>
       </c>
       <c r="R11" t="n">
-        <v>6576888</v>
+        <v>6576998</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1865,18 +1871,12 @@
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Mörkröda droppar på hattöversidan. Smak besk efter ett långt tag, ej brännande. Köttet färgas mörkviolett med KOH.</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1900,10 +1900,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>112093592</v>
+        <v>112093593</v>
       </c>
       <c r="B12" t="n">
-        <v>90806</v>
+        <v>103781</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1912,31 +1912,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>221144</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1945,10 +1945,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>653789</v>
+        <v>653786</v>
       </c>
       <c r="R12" t="n">
-        <v>6577029</v>
+        <v>6577035</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
